--- a/DataProfesionalSurveyCleaned.xlsx
+++ b/DataProfesionalSurveyCleaned.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9E383D-E729-49BD-82B9-998AC89031E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4E1DA4-F718-4966-B9BF-BB64A18E1B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5337,7 +5337,7 @@
   <dimension ref="A1:W613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F615" sqref="F615"/>
     </sheetView>
   </sheetViews>
